--- a/Эконометрика/Данные_Эконометрика.xlsx
+++ b/Эконометрика/Данные_Эконометрика.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\K1\245\Группа 141-ПИо\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\K1\245\Группа 141-ПИо\Костромин\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3579F84E-5C0D-486E-9E8C-5A5FC3DA78EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5DB017C-2CAC-4AE6-848A-998F58349FFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
   <si>
     <t> Австралия</t>
   </si>
@@ -1248,34 +1248,31 @@
     <t>Габон</t>
   </si>
   <si>
-    <t>83 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">75,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79,1	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78,3	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76,4	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77,1	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77,7	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66,5	</t>
+    <t>Т НАБЛ</t>
+  </si>
+  <si>
+    <t>Т КРИТ</t>
+  </si>
+  <si>
+    <t>F КРИТ</t>
+  </si>
+  <si>
+    <t>с</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x5</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1281,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1380,7 +1377,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1403,13 +1400,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1425,42 +1438,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Финансовый 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Финансовый 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -11562,10 +11572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11574,9 +11584,17 @@
     <col min="2" max="2" width="21.42578125" style="6" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" style="6" customWidth="1"/>
     <col min="4" max="8" width="20.7109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="6"/>
+    <col min="10" max="10" width="12.7109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="6" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="6" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="C1" s="5" t="s">
         <v>37</v>
       </c>
@@ -11596,1980 +11614,2134 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="7">
         <v>117846</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>98.82</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="7">
         <v>8.68</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="9">
         <v>5.5</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="7">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <v>82.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="7">
         <v>99681</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="11">
         <v>92</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="7">
         <v>6.02</v>
       </c>
       <c r="F3" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="7">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>83.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" s="15">
+        <f t="array" ref="J3:O7">LINEST(C2:C77,D2:H77,1,1)</f>
+        <v>1316.9458256603305</v>
+      </c>
+      <c r="K3" s="15">
+        <v>-84566.902914282298</v>
+      </c>
+      <c r="L3" s="15">
+        <v>-464.7765199852833</v>
+      </c>
+      <c r="M3" s="15">
+        <v>652.09261104847303</v>
+      </c>
+      <c r="N3" s="15">
+        <v>353.14193175555209</v>
+      </c>
+      <c r="O3" s="15">
+        <v>-87651.4660046473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="7">
         <v>93350</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <v>92</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="7">
         <v>9.24</v>
       </c>
       <c r="F4" s="7">
         <v>2.6</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="7">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>81.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="J4" s="15">
+        <v>618.79278310472284</v>
+      </c>
+      <c r="K4" s="15">
+        <v>48151.726133512493</v>
+      </c>
+      <c r="L4" s="15">
+        <v>914.25485439774752</v>
+      </c>
+      <c r="M4" s="15">
+        <v>1167.476218264075</v>
+      </c>
+      <c r="N4" s="15">
+        <v>179.72424028671193</v>
+      </c>
+      <c r="O4" s="15">
+        <v>43578.184356839185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="7">
         <v>89961</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="11">
         <v>99.65</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="7">
         <v>3.19</v>
       </c>
       <c r="F5" s="7">
         <v>10.4</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="7">
         <v>1E-3</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>77.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="J5" s="15">
+        <v>0.39934062082884653</v>
+      </c>
+      <c r="K5" s="15">
+        <v>16909.155485075349</v>
+      </c>
+      <c r="L5" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M5" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N5" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O5" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="7">
         <v>62645</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="11">
         <v>97</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="7">
         <v>9.8699999999999992</v>
       </c>
       <c r="F6" s="7">
         <v>10.4</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="7">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>82.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="J6" s="15">
+        <v>9.3077189593185441</v>
+      </c>
+      <c r="K6" s="15">
+        <v>70</v>
+      </c>
+      <c r="L6" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M6" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N6" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O6" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="7">
         <v>71745</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="11">
         <v>94.2</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="7">
         <v>9.0299999999999994</v>
       </c>
       <c r="F7" s="7">
         <v>12.3</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="7">
         <v>3.9E-2</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>83.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="J7" s="15">
+        <v>13306293580.116123</v>
+      </c>
+      <c r="K7" s="15">
+        <v>20014367745.291767</v>
+      </c>
+      <c r="L7" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M7" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N7" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O7" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="7">
         <v>66766</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="11">
         <v>100</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="7">
         <v>2.76</v>
       </c>
       <c r="F8" s="7">
         <v>3.3</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="7">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="7">
         <v>63028</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="11">
         <v>90.9</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="7">
         <v>7.96</v>
       </c>
       <c r="F9" s="7">
         <v>17.100000000000001</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="7">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>78.400000000000006</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="J9" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="7">
         <v>65607</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="11">
         <v>95</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="12">
         <v>5.2</v>
       </c>
       <c r="F10" s="7">
         <v>2.4</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="7">
         <v>2.7E-2</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>74.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="J10" s="6">
+        <f>J3/J4</f>
+        <v>2.12825013739285</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" ref="K10:O10" si="0">K3/K4</f>
+        <v>-1.7562590109397072</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.50836647762887544</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.55854894587752046</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="0"/>
+        <v>1.9649098596393508</v>
+      </c>
+      <c r="O10" s="6">
+        <f t="shared" si="0"/>
+        <v>-2.0113611270931995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="7">
         <v>60230</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="11">
         <v>96.55</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="7">
         <v>9.2200000000000006</v>
       </c>
       <c r="F11" s="7">
         <v>10.1</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="7">
         <v>2.7E-2</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <v>81.3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="7">
         <v>63420</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="11">
         <v>60.2</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="13">
         <v>6.1</v>
       </c>
       <c r="F12" s="7">
         <v>7.4</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="7">
         <v>0.10100000000000001</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="H12" s="10">
+        <v>83</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="7">
         <v>59267</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="11">
         <v>91.33</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="7">
         <v>9.01</v>
       </c>
       <c r="F13" s="7">
         <v>10.1</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="7">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <v>81.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="J13" s="6">
+        <f>TINV(0.05,K6)</f>
+        <v>1.9944371117711854</v>
+      </c>
+      <c r="L13" s="6">
+        <f>_xlfn.F.DIST(0.05,70,60,TRUE)</f>
+        <v>2.4816143590137759E-27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="7">
         <v>55065</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="11">
         <v>94.54</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="7">
         <v>9.39</v>
       </c>
       <c r="F14" s="7">
         <v>11</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="7">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="10">
         <v>82.4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="7">
         <v>53070</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="11">
         <v>91.53</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="7">
         <v>7.64</v>
       </c>
       <c r="F15" s="7">
         <v>10.3</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="7">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="10">
         <v>81.400000000000006</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+      <c r="J15" s="6">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,J13,6)</f>
+        <v>1.5958527362764403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="7">
         <v>55686</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="11">
         <v>87.33</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="7">
         <v>8.2899999999999991</v>
       </c>
       <c r="F16" s="7">
         <v>10.4</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="7">
         <v>5.5E-2</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <v>81.599999999999994</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="7">
         <v>54845</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="11">
         <v>89.81</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="7">
         <v>8.68</v>
       </c>
       <c r="F17" s="7">
         <v>11.2</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="7">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="10">
         <v>81.7</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="7">
         <v>53617</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="11">
         <v>99</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="7">
         <v>9.58</v>
       </c>
       <c r="F18" s="7">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="7">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <v>82.3</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="7">
         <v>13311</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="11">
         <v>76.510000000000005</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="7">
         <v>5.54</v>
       </c>
       <c r="F19" s="7">
         <v>10.4</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="7">
         <v>0.14799999999999999</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="7">
         <v>53317</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="11">
         <v>89.6</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="7">
         <v>9.09</v>
       </c>
       <c r="F20" s="7">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="7">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="10">
         <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="7">
         <v>50937</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="11">
         <v>92.17</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="7">
         <v>9.25</v>
       </c>
       <c r="F21" s="7">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="7">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="10">
         <v>81.599999999999994</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="7">
         <v>47303</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="11">
         <v>99.11</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="7">
         <v>3.93</v>
       </c>
       <c r="F22" s="7">
         <v>5.3</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="7">
         <v>2.3E-2</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="10">
         <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="7">
         <v>46572</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="11">
         <v>96.97</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="7">
         <v>9.2200000000000006</v>
       </c>
       <c r="F23" s="7">
         <v>10.6</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="7">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="10">
         <v>82.2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="7">
         <v>46991</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="11">
         <v>84.8</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="7">
         <v>8.1199999999999992</v>
       </c>
       <c r="F24" s="7">
         <v>11.3</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="7">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="10">
         <v>82.5</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="7">
         <v>46527</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="11">
         <v>94.82</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="7">
         <v>8.5399999999999991</v>
       </c>
       <c r="F25" s="7">
         <v>9.6</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="7">
         <v>3.9E-2</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="10">
         <v>81.400000000000006</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="7">
         <v>46778</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="11">
         <v>93.3</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="7">
         <v>1.93</v>
       </c>
       <c r="F26" s="7">
         <v>5.2</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="7">
         <v>0.06</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="10">
         <v>74.3</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="7">
         <v>43243</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="11">
         <v>86.86</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="7">
         <v>7.95</v>
       </c>
       <c r="F27" s="7">
         <v>9.3000000000000007</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="7">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="10">
         <v>81.900000000000006</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="7">
         <v>45226</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="11">
         <v>96.51</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="7">
         <v>8</v>
       </c>
       <c r="F28" s="7">
         <v>7.6</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="10">
         <v>83.3</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="7">
         <v>44658</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="11">
         <v>91.5</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="7">
         <v>9.26</v>
       </c>
       <c r="F29" s="7">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="7">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="10">
         <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="7">
         <v>41988</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="11">
         <v>70.48</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="7">
         <v>7.52</v>
       </c>
       <c r="F30" s="7">
         <v>8.8000000000000007</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="7">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="10">
         <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="7">
         <v>43821</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="11">
         <v>99.67</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="7">
         <v>2.5499999999999998</v>
       </c>
       <c r="F31" s="7">
         <v>4.7</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="7">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="H31" s="11" t="s">
-        <v>283</v>
+      <c r="H31" s="10">
+        <v>75.8</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="7">
         <v>41608</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="11">
         <v>81.34</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="7">
         <v>7.69</v>
       </c>
       <c r="F32" s="7">
         <v>7.2</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="7">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="H32" s="11" t="s">
-        <v>284</v>
+      <c r="H32" s="10">
+        <v>79.099999999999994</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="7">
         <v>39489</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="11">
         <v>90.13</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="7">
         <v>7.86</v>
       </c>
       <c r="F33" s="7">
         <v>7.4</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="7">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="10">
         <v>82.6</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
+      <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="7">
         <v>39725</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="11">
         <v>86.6</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="7">
         <v>7.5</v>
       </c>
       <c r="F34" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="7">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="10">
         <v>81.3</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C35" s="7">
         <v>42100</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="11">
         <v>90.22</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="7">
         <v>7.99</v>
       </c>
       <c r="F35" s="7">
         <v>10.9</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="7">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="10">
         <v>84.3</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
+      <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="7">
         <v>38881</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="11">
         <v>83.06</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="7">
         <v>7.5</v>
       </c>
       <c r="F36" s="7">
         <v>6.5</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="7">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="10">
         <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="7">
         <v>39593</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="11">
         <v>90.8</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="7">
         <v>7.59</v>
       </c>
       <c r="F37" s="7">
         <v>6.7</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="7">
         <v>0.08</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H37" s="10">
         <v>83.1</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
+      <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="7">
         <v>37645</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="11">
         <v>89.06</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="7">
         <v>7.9</v>
       </c>
       <c r="F38" s="7">
         <v>6.4</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="7">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="10">
         <v>78.900000000000006</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="14">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="7">
         <v>37756</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="11">
         <v>93.21</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="7">
         <v>8.2899999999999991</v>
       </c>
       <c r="F39" s="7">
         <v>8.9</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="7">
         <v>0.12479999999999999</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="10">
         <v>83.2</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
+      <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="7">
         <v>34287</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="11">
         <v>83.18</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="7">
         <v>6.62</v>
       </c>
       <c r="F40" s="7">
         <v>6.5</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="7">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="H40" s="11" t="s">
-        <v>285</v>
+      <c r="H40" s="10">
+        <v>78.3</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
+      <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="7">
         <v>33274</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="11">
         <v>84.77</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="7">
         <v>6.63</v>
       </c>
       <c r="F41" s="7">
         <v>6.9</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="7">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="H41" s="11" t="s">
-        <v>286</v>
+      <c r="H41" s="10">
+        <v>76.400000000000006</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="14">
+      <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="7">
         <v>34177</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="11">
         <v>78.260000000000005</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="7">
         <v>8.0299999999999994</v>
       </c>
       <c r="F42" s="7">
         <v>9</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="7">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="10">
         <v>81.599999999999994</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="14">
+      <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="7">
         <v>32202</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="11">
         <v>78.459999999999994</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="7">
         <v>6.49</v>
       </c>
       <c r="F43" s="7">
         <v>5.2</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="7">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="10">
         <v>75.599999999999994</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="14">
+      <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="7">
         <v>31425</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="11">
         <v>88.9</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="7">
         <v>7.49</v>
       </c>
       <c r="F44" s="7">
         <v>6</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="7">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="10">
         <v>75.400000000000006</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="14">
+      <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="7">
         <v>31118</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="11">
         <v>95.23</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="7">
         <v>3.06</v>
       </c>
       <c r="F45" s="7">
         <v>3.8</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="7">
         <v>3.1E-2</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H45" s="10">
         <v>73.900000000000006</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="14">
+      <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="7">
         <v>29065</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="11">
         <v>87</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="12">
         <v>7.12</v>
       </c>
       <c r="F46" s="7">
         <v>5.8</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="7">
         <v>0.14399999999999999</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46" s="10">
         <v>73.2</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="14">
+      <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="7">
         <v>28780</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="11">
         <v>78.319999999999993</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="7">
         <v>6.57</v>
       </c>
       <c r="F47" s="7">
         <v>6.8</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="7">
         <v>6.3E-2</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H47" s="10">
         <v>78.599999999999994</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="14">
+      <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="7">
         <v>31356</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="11">
         <v>89.92</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="7">
         <v>7.17</v>
       </c>
       <c r="F48" s="7">
         <v>6.7</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="7">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H48" s="10">
         <v>78.2</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="14">
+      <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C49" s="7">
         <v>29916</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="11">
         <v>84.99</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="7">
         <v>3.11</v>
       </c>
       <c r="F49" s="7">
         <v>5.3</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G49" s="7">
         <v>3.9E-2</v>
       </c>
-      <c r="H49" s="11">
+      <c r="H49" s="10">
         <v>73.2</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="14">
+      <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="7">
         <v>26780</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="11">
         <v>64.25</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="7">
         <v>7.05</v>
       </c>
       <c r="F50" s="7">
         <v>7.3</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="7">
         <v>0.14499999999999999</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H50" s="10">
         <v>79.3</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="14">
+      <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="7">
         <v>27949</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="11">
         <v>78.12</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="7">
         <v>7.43</v>
       </c>
       <c r="F51" s="7">
         <v>8</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="7">
         <v>0.126</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H51" s="10">
         <v>81.099999999999994</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="14">
+      <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="7">
         <v>27235</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="11">
         <v>77.67</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E52" s="7">
         <v>4.09</v>
       </c>
       <c r="F52" s="7">
         <v>4.2</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G52" s="7">
         <v>0.10100000000000001</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H52" s="10">
         <v>78.599999999999994</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="14">
+      <c r="A53" s="6">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C53" s="7">
         <v>28339</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="11">
         <v>79</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="12">
         <v>6.74</v>
       </c>
       <c r="F53" s="7">
         <v>5</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G53" s="7">
         <v>0.03</v>
       </c>
-      <c r="H53" s="11">
+      <c r="H53" s="10">
         <v>73.3</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="14">
+      <c r="A54" s="6">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="7">
         <v>27921</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="11">
         <v>89.56</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E54" s="7">
         <v>7.16</v>
       </c>
       <c r="F54" s="7">
         <v>3.9</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G54" s="7">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H54" s="10">
         <v>74.7</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="14">
+      <c r="A55" s="6">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C55" s="7">
         <v>25089</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="11">
         <v>88.3</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="7">
         <v>8.08</v>
       </c>
       <c r="F55" s="7">
         <v>9</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G55" s="7">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="H55" s="11">
+      <c r="H55" s="10">
         <v>80.7</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="14">
+      <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="7">
         <v>26750</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="11">
         <v>85.94</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E56" s="7">
         <v>2.94</v>
       </c>
       <c r="F56" s="7">
         <v>3.1</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G56" s="7">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="H56" s="11" t="s">
-        <v>287</v>
+      <c r="H56" s="10">
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="14">
+      <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C57" s="7">
         <v>26125</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="11">
         <v>77.3</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="7">
         <v>7.16</v>
       </c>
       <c r="F57" s="7">
         <v>7</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G57" s="7">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="H57" s="11">
+      <c r="H57" s="10">
         <v>76.099999999999994</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="14">
+      <c r="A58" s="6">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="7">
         <v>24564</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="11">
         <v>70.16</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E58" s="7">
         <v>7.03</v>
       </c>
       <c r="F58" s="7">
         <v>8.1</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G58" s="7">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H58" s="10">
         <v>75.099999999999994</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="14">
+      <c r="A59" s="6">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C59" s="17">
+      <c r="C59" s="7">
         <v>22728</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="11">
         <v>86.1</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E59" s="7">
         <v>8.3800000000000008</v>
       </c>
       <c r="F59" s="7">
         <v>9.3000000000000007</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G59" s="7">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="H59" s="11" t="s">
-        <v>288</v>
+      <c r="H59" s="10">
+        <v>77.099999999999994</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="14">
+      <c r="A60" s="6">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C60" s="7">
         <v>19703</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="11">
         <v>37.299999999999997</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E60" s="7">
         <v>6.15</v>
       </c>
       <c r="F60" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G60" s="7">
         <v>0.158</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H60" s="10">
         <v>65.7</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="14">
+      <c r="A61" s="6">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="17">
+      <c r="C61" s="7">
         <v>20769</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="11">
         <v>85.5</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E61" s="7">
         <v>7.02</v>
       </c>
       <c r="F61" s="7">
         <v>9.1</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G61" s="7">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="H61" s="11">
+      <c r="H61" s="10">
         <v>76.599999999999994</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="14">
+      <c r="A62" s="6">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C62" s="7">
         <v>22244</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="11">
         <v>80.53</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E62" s="7">
         <v>8.1300000000000008</v>
       </c>
       <c r="F62" s="7">
         <v>7.3</v>
       </c>
-      <c r="G62" s="12">
+      <c r="G62" s="7">
         <v>0.17100000000000001</v>
       </c>
-      <c r="H62" s="11" t="s">
-        <v>289</v>
+      <c r="H62" s="10">
+        <v>80.8</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="14">
+      <c r="A63" s="6">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C63" s="17">
+      <c r="C63" s="7">
         <v>17286</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="11">
         <v>21.8</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E63" s="7">
         <v>2.02</v>
       </c>
       <c r="F63" s="7">
         <v>3.9</v>
       </c>
-      <c r="G63" s="12">
+      <c r="G63" s="7">
         <v>0.19600000000000001</v>
       </c>
-      <c r="H63" s="11">
+      <c r="H63" s="10">
         <v>75.8</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="14">
+      <c r="A64" s="6">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C64" s="17">
+      <c r="C64" s="7">
         <v>19990</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="11">
         <v>77.61</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E64" s="7">
         <v>5.65</v>
       </c>
       <c r="F64" s="7">
         <v>5</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G64" s="7">
         <v>0.19159999999999999</v>
       </c>
-      <c r="H64" s="11">
+      <c r="H64" s="10">
         <v>75.900000000000006</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="14">
+      <c r="A65" s="6">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C65" s="17">
+      <c r="C65" s="7">
         <v>20529</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="11">
         <v>64.88</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E65" s="7">
         <v>8.2200000000000006</v>
       </c>
       <c r="F65" s="7">
         <v>5.7</v>
       </c>
-      <c r="G65" s="12">
+      <c r="G65" s="7">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="H65" s="11">
+      <c r="H65" s="10">
         <v>74.099999999999994</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="14">
+      <c r="A66" s="6">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C66" s="7">
         <v>20238</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="11">
         <v>79.099999999999994</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E66" s="7">
         <v>2.48</v>
       </c>
       <c r="F66" s="7">
         <v>3.1</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G66" s="7">
         <v>3.9E-2</v>
       </c>
-      <c r="H66" s="11">
+      <c r="H66" s="10">
         <v>74.8</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="14">
+      <c r="A67" s="6">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C67" s="17">
+      <c r="C67" s="7">
         <v>19094</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="11">
         <v>78.37</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E67" s="7">
         <v>6.41</v>
       </c>
       <c r="F67" s="7">
         <v>8.4</v>
       </c>
-      <c r="G67" s="12">
+      <c r="G67" s="7">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="H67" s="11">
+      <c r="H67" s="10">
         <v>75.900000000000006</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="14">
+      <c r="A68" s="6">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C68" s="17">
+      <c r="C68" s="7">
         <v>17934</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="11">
         <v>76.900000000000006</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E68" s="7">
         <v>6.54</v>
       </c>
       <c r="F68" s="7">
         <v>3.9</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G68" s="7">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="H68" s="11">
+      <c r="H68" s="10">
         <v>72.8</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="14">
+      <c r="A69" s="6">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C69" s="17">
+      <c r="C69" s="7">
         <v>18671</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69" s="11">
         <v>71.97</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E69" s="7">
         <v>6.09</v>
       </c>
       <c r="F69" s="7">
         <v>5.5</v>
       </c>
-      <c r="G69" s="12">
+      <c r="G69" s="7">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H69" s="11">
+      <c r="H69" s="10">
         <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="14">
+      <c r="A70" s="6">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C70" s="17">
+      <c r="C70" s="7">
         <v>17189</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="11">
         <v>70.400000000000006</v>
       </c>
-      <c r="E70" s="14">
+      <c r="E70" s="7">
         <v>2.2599999999999998</v>
       </c>
       <c r="F70" s="7">
         <v>5.2</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G70" s="7">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="H70" s="11">
+      <c r="H70" s="10">
         <v>77.400000000000006</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="14">
+      <c r="A71" s="6">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C71" s="17">
+      <c r="C71" s="7">
         <v>18198</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D71" s="11">
         <v>77.84</v>
       </c>
-      <c r="E71" s="14">
+      <c r="E71" s="7">
         <v>6.32</v>
       </c>
       <c r="F71" s="7">
         <v>3.7</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G71" s="7">
         <v>1.37E-2</v>
       </c>
-      <c r="H71" s="11" t="s">
-        <v>290</v>
+      <c r="H71" s="10">
+        <v>77.7</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="14">
+      <c r="A72" s="6">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C72" s="17">
+      <c r="C72" s="7">
         <v>18158</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72" s="11">
         <v>26.2</v>
       </c>
-      <c r="E72" s="14">
+      <c r="E72" s="7">
         <v>1.92</v>
       </c>
       <c r="F72" s="7">
         <v>3.1</v>
       </c>
-      <c r="G72" s="12">
+      <c r="G72" s="7">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="H72" s="11">
+      <c r="H72" s="10">
         <v>62.2</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="14">
+      <c r="A73" s="6">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C73" s="17">
+      <c r="C73" s="7">
         <v>16720</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D73" s="11">
         <v>79.2</v>
       </c>
-      <c r="E73" s="14">
+      <c r="E73" s="7">
         <v>5.8900000000000006</v>
       </c>
       <c r="F73" s="7">
         <v>4.2</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G73" s="7">
         <v>0.14499999999999999</v>
       </c>
-      <c r="H73" s="11">
+      <c r="H73" s="10">
         <v>74.8</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="14">
+      <c r="A74" s="6">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C74" s="17">
+      <c r="C74" s="7">
         <v>15791</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D74" s="11">
         <v>84.11</v>
       </c>
-      <c r="E74" s="14">
+      <c r="E74" s="7">
         <v>2.38</v>
       </c>
       <c r="F74" s="7">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G74" s="12">
+      <c r="G74" s="7">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="H74" s="11">
+      <c r="H74" s="10">
         <v>77.3</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="14">
+      <c r="A75" s="6">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C75" s="17">
+      <c r="C75" s="7">
         <v>15471</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D75" s="11">
         <v>64</v>
       </c>
-      <c r="E75" s="14">
+      <c r="E75" s="7">
         <v>7.81</v>
       </c>
       <c r="F75" s="7">
         <v>6.1</v>
       </c>
-      <c r="G75" s="12">
+      <c r="G75" s="7">
         <v>0.245</v>
       </c>
-      <c r="H75" s="11">
+      <c r="H75" s="10">
         <v>62.2</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="14">
+      <c r="A76" s="6">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C76" s="17">
+      <c r="C76" s="7">
         <v>14731</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76" s="11">
         <v>72.53</v>
       </c>
-      <c r="E76" s="14">
+      <c r="E76" s="7">
         <v>5.42</v>
       </c>
       <c r="F76" s="7">
         <v>7.6</v>
       </c>
-      <c r="G76" s="12">
+      <c r="G76" s="7">
         <v>0.20599999999999999</v>
       </c>
-      <c r="H76" s="11">
+      <c r="H76" s="10">
         <v>73.3</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="14">
+      <c r="A77" s="6">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C77" s="17">
+      <c r="C77" s="7">
         <v>15105</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D77" s="11">
         <v>62</v>
       </c>
-      <c r="E77" s="14">
+      <c r="E77" s="7">
         <v>3.61</v>
       </c>
       <c r="F77" s="7">
         <v>2.8</v>
       </c>
-      <c r="G77" s="12">
+      <c r="G77" s="7">
         <v>0.223</v>
       </c>
-      <c r="H77" s="11" t="s">
-        <v>291</v>
+      <c r="H77" s="10">
+        <v>66.5</v>
       </c>
     </row>
   </sheetData>
@@ -13582,8 +13754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:G199"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
